--- a/outputs/c/_bouillon_both.xlsx
+++ b/outputs/c/_bouillon_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="138">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -420,13 +417,22 @@
     <t>chicken</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>mix</t>
   </si>
   <si>
     <t xml:space="preserve">mix </t>
+  </si>
+  <si>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>vegan</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B8:B20"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,16 +812,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>0</v>
@@ -824,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>2</v>
@@ -842,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>83</v>
@@ -865,25 +871,25 @@
         <v>834</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
@@ -892,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -907,13 +913,13 @@
         <v>834</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -924,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>30</v>
@@ -936,25 +942,25 @@
         <v>778</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -963,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -978,13 +984,13 @@
         <v>778</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="X3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>191</v>
@@ -1007,22 +1013,22 @@
         <v>1386</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -1031,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1046,13 +1052,13 @@
         <v>318</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="X4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1063,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>88</v>
@@ -1075,22 +1081,22 @@
         <v>570</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -1099,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1114,13 +1120,13 @@
         <v>112</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>246</v>
@@ -1143,25 +1149,25 @@
         <v>1618</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -1170,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1185,13 +1191,13 @@
         <v>1056</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="X6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>225</v>
@@ -1214,19 +1220,19 @@
         <v>1056</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -1235,7 +1241,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R7" s="2">
         <v>1</v>
@@ -1250,13 +1256,13 @@
         <v>2812</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="X7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1267,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>321</v>
@@ -1279,22 +1285,22 @@
         <v>3202</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="8">
         <v>2</v>
@@ -1303,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R8" s="2">
         <v>2</v>
@@ -1318,13 +1324,13 @@
         <v>2784</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="X8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>253</v>
@@ -1345,22 +1351,22 @@
         <v>2812</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -1375,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>340</v>
@@ -1387,22 +1393,22 @@
         <v>3342</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="7">
         <v>3</v>
@@ -1411,7 +1417,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -1426,13 +1432,13 @@
         <v>738</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>251</v>
@@ -1455,25 +1461,25 @@
         <v>1898</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
@@ -1482,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -1497,13 +1503,13 @@
         <v>244</v>
       </c>
       <c r="V11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="X11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>32</v>
@@ -1526,25 +1532,25 @@
         <v>244</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -1553,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S12" s="2">
         <v>246</v>
@@ -1568,13 +1574,13 @@
         <v>3282</v>
       </c>
       <c r="V12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="X12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1585,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>303</v>
@@ -1597,34 +1603,34 @@
         <v>3962</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P13" s="4">
         <v>4</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -1639,13 +1645,13 @@
         <v>1270</v>
       </c>
       <c r="V13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="X13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1656,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>109</v>
@@ -1668,25 +1674,25 @@
         <v>1270</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -1695,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -1710,13 +1716,13 @@
         <v>1320</v>
       </c>
       <c r="V14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="X14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>225</v>
@@ -1739,22 +1745,22 @@
         <v>1330</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -1763,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -1778,13 +1784,13 @@
         <v>1260</v>
       </c>
       <c r="V15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="X15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>538</v>
@@ -1807,22 +1813,22 @@
         <v>4730</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -1831,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -1846,13 +1852,13 @@
         <v>736</v>
       </c>
       <c r="V16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="X16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1863,7 +1869,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>168</v>
@@ -1875,19 +1881,19 @@
         <v>736</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -1896,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S17" s="2">
         <v>12</v>
@@ -1911,13 +1917,13 @@
         <v>128</v>
       </c>
       <c r="V17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="X17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1928,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>12</v>
@@ -1940,25 +1946,25 @@
         <v>128</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -1967,7 +1973,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R18" s="2">
         <v>1</v>
@@ -1982,13 +1988,13 @@
         <v>202</v>
       </c>
       <c r="V18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="X18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1999,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>376</v>
@@ -2011,22 +2017,22 @@
         <v>4356</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -2040,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>17</v>
@@ -2052,19 +2058,19 @@
         <v>202</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N20" s="8">
         <v>1</v>
@@ -2076,25 +2082,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="2"/>
       <c r="P21" s="5"/>
@@ -2107,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>44</v>
@@ -2119,10 +2125,10 @@
         <v>318</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N22" s="7"/>
     </row>
@@ -2134,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>198</v>
@@ -2146,10 +2152,10 @@
         <v>1418</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="N23" s="7"/>
     </row>
@@ -2161,7 +2167,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>18</v>
@@ -2173,10 +2179,10 @@
         <v>112</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24" s="7"/>
     </row>
@@ -2188,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
@@ -2200,10 +2206,10 @@
         <v>186</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="N25" s="7"/>
     </row>
@@ -2215,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -2227,10 +2233,10 @@
         <v>550</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>126</v>
@@ -2253,10 +2259,10 @@
         <v>832</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>141</v>
@@ -2279,10 +2285,10 @@
         <v>954</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>153</v>
@@ -2305,10 +2311,10 @@
         <v>1032</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>170</v>
@@ -2331,10 +2337,10 @@
         <v>1156</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,7 +2351,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>180</v>
@@ -2357,10 +2363,10 @@
         <v>1222</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>195</v>
@@ -2383,10 +2389,10 @@
         <v>1308</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2397,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>206</v>
@@ -2409,10 +2415,10 @@
         <v>1382</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>228</v>
@@ -2435,10 +2441,10 @@
         <v>1530</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2449,7 +2455,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>263</v>
@@ -2461,10 +2467,10 @@
         <v>1720</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2475,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>286</v>
@@ -2487,10 +2493,10 @@
         <v>1838</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,7 +2507,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>292</v>
@@ -2513,10 +2519,10 @@
         <v>1860</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,7 +2533,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>253</v>
@@ -2539,10 +2545,10 @@
         <v>2812</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>254</v>
@@ -2565,10 +2571,10 @@
         <v>2784</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2579,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>261</v>
@@ -2591,10 +2597,10 @@
         <v>2870</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,7 +2611,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>264</v>
@@ -2617,10 +2623,10 @@
         <v>2888</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>303</v>
@@ -2643,10 +2649,10 @@
         <v>3080</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>320</v>
@@ -2669,10 +2675,10 @@
         <v>3202</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>340</v>
@@ -2695,10 +2701,10 @@
         <v>3342</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2709,7 +2715,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>366</v>
@@ -2721,10 +2727,10 @@
         <v>3468</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2735,7 +2741,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
         <v>108</v>
@@ -2747,10 +2753,10 @@
         <v>738</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2761,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
         <v>64</v>
@@ -2773,10 +2779,10 @@
         <v>374</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2787,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>246</v>
@@ -2799,10 +2805,10 @@
         <v>3282</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2813,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
         <v>345</v>
@@ -2825,10 +2831,10 @@
         <v>4300</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2839,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
         <v>124</v>
@@ -2851,10 +2857,10 @@
         <v>1398</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2865,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1">
         <v>216</v>
@@ -2877,10 +2883,10 @@
         <v>1320</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2891,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="1">
         <v>117</v>
@@ -2903,10 +2909,10 @@
         <v>1260</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2917,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1">
         <v>536</v>
@@ -2929,10 +2935,10 @@
         <v>4712</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2943,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
         <v>10</v>
@@ -2955,10 +2961,10 @@
         <v>112</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2969,7 +2975,7 @@
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1">
         <v>17</v>
@@ -2981,10 +2987,10 @@
         <v>134</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2995,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1">
         <v>18</v>
@@ -3007,10 +3013,10 @@
         <v>202</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3021,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1">
         <v>212</v>
@@ -3033,10 +3039,10 @@
         <v>1706</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3047,7 +3053,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1">
         <v>215</v>
@@ -3059,10 +3065,10 @@
         <v>1824</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3073,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1">
         <v>222</v>
@@ -3085,10 +3091,10 @@
         <v>1824</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
